--- a/public/uploads/ck_retailers.xlsx
+++ b/public/uploads/ck_retailers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,14 +13,14 @@
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>retailer_code</t>
   </si>
@@ -58,10 +58,13 @@
     <t>sunil006</t>
   </si>
   <si>
-    <t>KG10</t>
+    <t>KG11</t>
   </si>
   <si>
     <t>Kesav Electronics</t>
+  </si>
+  <si>
+    <t>sunil009</t>
   </si>
 </sst>
 </file>
@@ -76,6 +79,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -160,15 +164,15 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -235,7 +239,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>2</v>

--- a/public/uploads/ck_retailers.xlsx
+++ b/public/uploads/ck_retailers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>retailer_code</t>
   </si>
@@ -34,7 +34,7 @@
     <t>route_no</t>
   </si>
   <si>
-    <t>ABE01</t>
+    <t>AB01</t>
   </si>
   <si>
     <t>AB_Enterprise</t>
@@ -43,13 +43,13 @@
     <t>anil007</t>
   </si>
   <si>
-    <t>SK05</t>
+    <t>AB02</t>
   </si>
   <si>
     <t>Sanjay Groceries</t>
   </si>
   <si>
-    <t>MP110</t>
+    <t>AB03</t>
   </si>
   <si>
     <t>Manik Groceries</t>
@@ -58,13 +58,148 @@
     <t>sunil006</t>
   </si>
   <si>
-    <t>KG11</t>
+    <t>AB04</t>
   </si>
   <si>
     <t>Kesav Electronics</t>
   </si>
   <si>
+    <t>sunil007</t>
+  </si>
+  <si>
+    <t>AB05</t>
+  </si>
+  <si>
+    <t>Rn10</t>
+  </si>
+  <si>
+    <t>sunil008</t>
+  </si>
+  <si>
+    <t>AB06</t>
+  </si>
+  <si>
+    <t>Rn11</t>
+  </si>
+  <si>
     <t>sunil009</t>
+  </si>
+  <si>
+    <t>AB07</t>
+  </si>
+  <si>
+    <t>Rn12</t>
+  </si>
+  <si>
+    <t>sunil010</t>
+  </si>
+  <si>
+    <t>AB08</t>
+  </si>
+  <si>
+    <t>Rn13</t>
+  </si>
+  <si>
+    <t>sunil011</t>
+  </si>
+  <si>
+    <t>AB09</t>
+  </si>
+  <si>
+    <t>Rn14</t>
+  </si>
+  <si>
+    <t>sunil012</t>
+  </si>
+  <si>
+    <t>AB10</t>
+  </si>
+  <si>
+    <t>Rn15</t>
+  </si>
+  <si>
+    <t>sunil013</t>
+  </si>
+  <si>
+    <t>AB11</t>
+  </si>
+  <si>
+    <t>Rn16</t>
+  </si>
+  <si>
+    <t>sunil014</t>
+  </si>
+  <si>
+    <t>AB12</t>
+  </si>
+  <si>
+    <t>Rn17</t>
+  </si>
+  <si>
+    <t>sunil015</t>
+  </si>
+  <si>
+    <t>AB13</t>
+  </si>
+  <si>
+    <t>Rn18</t>
+  </si>
+  <si>
+    <t>sunil016</t>
+  </si>
+  <si>
+    <t>AB14</t>
+  </si>
+  <si>
+    <t>Rn19</t>
+  </si>
+  <si>
+    <t>sunil017</t>
+  </si>
+  <si>
+    <t>AB15</t>
+  </si>
+  <si>
+    <t>Rn20</t>
+  </si>
+  <si>
+    <t>sunil018</t>
+  </si>
+  <si>
+    <t>AB16</t>
+  </si>
+  <si>
+    <t>Rn21</t>
+  </si>
+  <si>
+    <t>sunil019</t>
+  </si>
+  <si>
+    <t>AB17</t>
+  </si>
+  <si>
+    <t>Rn22</t>
+  </si>
+  <si>
+    <t>sunil020</t>
+  </si>
+  <si>
+    <t>AB18</t>
+  </si>
+  <si>
+    <t>Rn23</t>
+  </si>
+  <si>
+    <t>sunil021</t>
+  </si>
+  <si>
+    <t>AB19</t>
+  </si>
+  <si>
+    <t>Rn24</t>
+  </si>
+  <si>
+    <t>sunil022</t>
   </si>
 </sst>
 </file>
@@ -161,18 +296,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -228,7 +361,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -242,7 +375,217 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/uploads/ck_retailers.xlsx
+++ b/public/uploads/ck_retailers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>retailer_code</t>
   </si>
@@ -34,39 +34,6 @@
     <t>route_no</t>
   </si>
   <si>
-    <t>AB01</t>
-  </si>
-  <si>
-    <t>AB_Enterprise</t>
-  </si>
-  <si>
-    <t>anil007</t>
-  </si>
-  <si>
-    <t>AB02</t>
-  </si>
-  <si>
-    <t>Sanjay Groceries</t>
-  </si>
-  <si>
-    <t>AB03</t>
-  </si>
-  <si>
-    <t>Manik Groceries</t>
-  </si>
-  <si>
-    <t>sunil006</t>
-  </si>
-  <si>
-    <t>AB04</t>
-  </si>
-  <si>
-    <t>Kesav Electronics</t>
-  </si>
-  <si>
-    <t>sunil007</t>
-  </si>
-  <si>
     <t>AB05</t>
   </si>
   <si>
@@ -200,6 +167,51 @@
   </si>
   <si>
     <t>sunil022</t>
+  </si>
+  <si>
+    <t>AB20</t>
+  </si>
+  <si>
+    <t>Rn25</t>
+  </si>
+  <si>
+    <t>sunil023</t>
+  </si>
+  <si>
+    <t>AB21</t>
+  </si>
+  <si>
+    <t>Rn26</t>
+  </si>
+  <si>
+    <t>sunil024</t>
+  </si>
+  <si>
+    <t>AB22</t>
+  </si>
+  <si>
+    <t>Rn27</t>
+  </si>
+  <si>
+    <t>sunil025</t>
+  </si>
+  <si>
+    <t>AB23</t>
+  </si>
+  <si>
+    <t>Rn28</t>
+  </si>
+  <si>
+    <t>sunil026</t>
+  </si>
+  <si>
+    <t>AB24</t>
+  </si>
+  <si>
+    <t>Rn29</t>
+  </si>
+  <si>
+    <t>sunil027</t>
   </si>
 </sst>
 </file>
@@ -296,10 +308,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8:D20"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -333,7 +345,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -344,248 +356,262 @@
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>19</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
